--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Efemp1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efemp1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H2">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I2">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J2">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.848672295805</v>
+        <v>7.842347938194001</v>
       </c>
       <c r="R2">
-        <v>3.39468918322</v>
+        <v>31.369391752776</v>
       </c>
       <c r="S2">
-        <v>0.0001344861899310219</v>
+        <v>0.001324467685146286</v>
       </c>
       <c r="T2">
-        <v>6.727852070033313E-05</v>
+        <v>0.0006521847971649035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H3">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I3">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J3">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>74.61915498798751</v>
+        <v>146.63193224526</v>
       </c>
       <c r="R3">
-        <v>447.7149299279251</v>
+        <v>879.79159347156</v>
       </c>
       <c r="S3">
-        <v>0.01182464173723028</v>
+        <v>0.02476417233715987</v>
       </c>
       <c r="T3">
-        <v>0.008873153492194696</v>
+        <v>0.01829129192104466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H4">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I4">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J4">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.6033951192683334</v>
+        <v>0.814796225012</v>
       </c>
       <c r="R4">
-        <v>3.620370715610001</v>
+        <v>4.888777350072</v>
       </c>
       <c r="S4">
-        <v>9.561795644147926E-05</v>
+        <v>0.000137608185522064</v>
       </c>
       <c r="T4">
-        <v>7.175124819586818E-05</v>
+        <v>0.0001016400410173375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H5">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I5">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J5">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>32.61257873946126</v>
+        <v>38.244662374254</v>
       </c>
       <c r="R5">
-        <v>130.450314957845</v>
+        <v>152.978649497016</v>
       </c>
       <c r="S5">
-        <v>0.00516800357473122</v>
+        <v>0.006459012000390083</v>
       </c>
       <c r="T5">
-        <v>0.002585363119144676</v>
+        <v>0.003180499968857163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H6">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I6">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J6">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>1.532568318919167</v>
+        <v>5.452918223059999</v>
       </c>
       <c r="R6">
-        <v>9.195409913515</v>
+        <v>32.71750933836</v>
       </c>
       <c r="S6">
-        <v>0.000242860848691811</v>
+        <v>0.0009209249619000542</v>
       </c>
       <c r="T6">
-        <v>0.0001822415964538024</v>
+        <v>0.0006802128125321677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.4893325</v>
+        <v>2.926644</v>
       </c>
       <c r="H7">
-        <v>2.978665</v>
+        <v>5.853288</v>
       </c>
       <c r="I7">
-        <v>0.01753267065203303</v>
+        <v>0.03366040736128984</v>
       </c>
       <c r="J7">
-        <v>0.01183010973253717</v>
+        <v>0.02294587908936807</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.4231829081033334</v>
+        <v>0.321056748992</v>
       </c>
       <c r="R7">
-        <v>2.53909744862</v>
+        <v>1.926340493952</v>
       </c>
       <c r="S7">
-        <v>6.706034500721328E-05</v>
+        <v>5.422219117148121E-05</v>
       </c>
       <c r="T7">
-        <v>5.032175584779389E-05</v>
+        <v>4.004954875184813E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H8">
         <v>243.259732</v>
       </c>
       <c r="I8">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J8">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>46.20588870816267</v>
+        <v>217.2827144556273</v>
       </c>
       <c r="R8">
-        <v>277.235332248976</v>
+        <v>1303.696286733764</v>
       </c>
       <c r="S8">
-        <v>0.007322088815027643</v>
+        <v>0.03669614458646673</v>
       </c>
       <c r="T8">
-        <v>0.005494459737808544</v>
+        <v>0.02710447512113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H9">
         <v>243.259732</v>
       </c>
       <c r="I9">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J9">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>4062.633348484261</v>
+        <v>4062.633348484259</v>
       </c>
       <c r="R9">
-        <v>36563.70013635835</v>
+        <v>36563.70013635833</v>
       </c>
       <c r="S9">
-        <v>0.6437915822456599</v>
+        <v>0.6861244399090247</v>
       </c>
       <c r="T9">
-        <v>0.7246470954290415</v>
+        <v>0.7601769758547825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H10">
         <v>243.259732</v>
       </c>
       <c r="I10">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J10">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>32.85179434485423</v>
+        <v>22.57501667792311</v>
       </c>
       <c r="R10">
-        <v>295.666149103688</v>
+        <v>203.175150101308</v>
       </c>
       <c r="S10">
-        <v>0.005205911251817378</v>
+        <v>0.003812618404231783</v>
       </c>
       <c r="T10">
-        <v>0.005859735622096603</v>
+        <v>0.00422410944726221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H11">
         <v>243.259732</v>
       </c>
       <c r="I11">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J11">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>1775.588989024779</v>
+        <v>1059.619404750687</v>
       </c>
       <c r="R11">
-        <v>10653.53393414868</v>
+        <v>6357.716428504123</v>
       </c>
       <c r="S11">
-        <v>0.2813715013412963</v>
+        <v>0.178955546375493</v>
       </c>
       <c r="T11">
-        <v>0.2111398023899357</v>
+        <v>0.1321799935438341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H12">
         <v>243.259732</v>
       </c>
       <c r="I12">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J12">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>83.44054770217912</v>
+        <v>151.0803757431711</v>
       </c>
       <c r="R12">
-        <v>750.964929319612</v>
+        <v>1359.72338168854</v>
       </c>
       <c r="S12">
-        <v>0.01322253760573109</v>
+        <v>0.02551545495157791</v>
       </c>
       <c r="T12">
-        <v>0.01488319160180958</v>
+        <v>0.0282693054706246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.08657733333334</v>
+        <v>81.08657733333332</v>
       </c>
       <c r="H13">
         <v>243.259732</v>
       </c>
       <c r="I13">
-        <v>0.9545647158615955</v>
+        <v>0.9326065023872842</v>
       </c>
       <c r="J13">
-        <v>0.9661339301558192</v>
+        <v>0.9536192987230564</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>23.04015631436622</v>
+        <v>8.895305648903109</v>
       </c>
       <c r="R13">
-        <v>207.361406829296</v>
+        <v>80.05775084012799</v>
       </c>
       <c r="S13">
-        <v>0.003651094602063282</v>
+        <v>0.00150229816049</v>
       </c>
       <c r="T13">
-        <v>0.004109645375127371</v>
+        <v>0.001664439285423083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05555733333333334</v>
+        <v>2.8208775</v>
       </c>
       <c r="H14">
-        <v>0.166672</v>
+        <v>5.641755</v>
       </c>
       <c r="I14">
-        <v>0.000654030196506522</v>
+        <v>0.03244394800539351</v>
       </c>
       <c r="J14">
-        <v>0.0006619569670780148</v>
+        <v>0.02211663394690946</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.03165845748266667</v>
+        <v>7.558931952783751</v>
       </c>
       <c r="R14">
-        <v>0.189950744896</v>
+        <v>30.235727811135</v>
       </c>
       <c r="S14">
-        <v>5.016807249373635E-06</v>
+        <v>0.001276602515545534</v>
       </c>
       <c r="T14">
-        <v>3.764587693535837E-06</v>
+        <v>0.0006286153765762217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05555733333333334</v>
+        <v>2.8208775</v>
       </c>
       <c r="H15">
-        <v>0.166672</v>
+        <v>5.641755</v>
       </c>
       <c r="I15">
-        <v>0.000654030196506522</v>
+        <v>0.03244394800539351</v>
       </c>
       <c r="J15">
-        <v>0.0006619569670780148</v>
+        <v>0.02211663394690946</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>2.783556570960001</v>
+        <v>141.3327751691625</v>
       </c>
       <c r="R15">
-        <v>25.05200913864001</v>
+        <v>847.996651014975</v>
       </c>
       <c r="S15">
-        <v>0.0004411006692881198</v>
+        <v>0.02386921557661837</v>
       </c>
       <c r="T15">
-        <v>0.0004964996865545721</v>
+        <v>0.01763025971932584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05555733333333334</v>
+        <v>2.8208775</v>
       </c>
       <c r="H16">
-        <v>0.166672</v>
+        <v>5.641755</v>
       </c>
       <c r="I16">
-        <v>0.000654030196506522</v>
+        <v>0.03244394800539351</v>
       </c>
       <c r="J16">
-        <v>0.0006619569670780148</v>
+        <v>0.02211663394690946</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.02250875729422223</v>
+        <v>0.7853501615574999</v>
       </c>
       <c r="R16">
-        <v>0.202578815648</v>
+        <v>4.712100969344999</v>
       </c>
       <c r="S16">
-        <v>3.566885620686724E-06</v>
+        <v>0.0001326351392089424</v>
       </c>
       <c r="T16">
-        <v>4.014860361706248E-06</v>
+        <v>9.796685377684625E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05555733333333334</v>
+        <v>2.8208775</v>
       </c>
       <c r="H17">
-        <v>0.166672</v>
+        <v>5.641755</v>
       </c>
       <c r="I17">
-        <v>0.000654030196506522</v>
+        <v>0.03244394800539351</v>
       </c>
       <c r="J17">
-        <v>0.0006619569670780148</v>
+        <v>0.02211663394690946</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>1.216563734349334</v>
+        <v>36.86253182369624</v>
       </c>
       <c r="R17">
-        <v>7.299382406096001</v>
+        <v>147.450127294785</v>
       </c>
       <c r="S17">
-        <v>0.0001927846852661851</v>
+        <v>0.006225588634671787</v>
       </c>
       <c r="T17">
-        <v>0.0001446646876349242</v>
+        <v>0.00306555932354597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05555733333333334</v>
+        <v>2.8208775</v>
       </c>
       <c r="H18">
-        <v>0.166672</v>
+        <v>5.641755</v>
       </c>
       <c r="I18">
-        <v>0.000654030196506522</v>
+        <v>0.03244394800539351</v>
       </c>
       <c r="J18">
-        <v>0.0006619569670780148</v>
+        <v>0.02211663394690946</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.05717018123911111</v>
+        <v>5.255854256537499</v>
       </c>
       <c r="R18">
-        <v>0.5145316311520001</v>
+        <v>31.535125539225</v>
       </c>
       <c r="S18">
-        <v>9.059562672799508E-06</v>
+        <v>0.0008876434934389767</v>
       </c>
       <c r="T18">
-        <v>1.019737747082943E-05</v>
+        <v>0.0006556304825881486</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.8208775</v>
+      </c>
+      <c r="H19">
+        <v>5.641755</v>
+      </c>
+      <c r="I19">
+        <v>0.03244394800539351</v>
+      </c>
+      <c r="J19">
+        <v>0.02211663394690946</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.05555733333333334</v>
-      </c>
-      <c r="H19">
-        <v>0.166672</v>
-      </c>
-      <c r="I19">
-        <v>0.000654030196506522</v>
-      </c>
-      <c r="J19">
-        <v>0.0006619569670780148</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.01578620884622222</v>
+        <v>0.30945402292</v>
       </c>
       <c r="R19">
-        <v>0.142075879616</v>
+        <v>1.85672413752</v>
       </c>
       <c r="S19">
-        <v>2.501586409357268E-06</v>
+        <v>5.226264590989884E-05</v>
       </c>
       <c r="T19">
-        <v>2.815767362447104E-06</v>
+        <v>3.860219109643723E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H20">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I20">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J20">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>0.8902482391959999</v>
+        <v>0.300349960911</v>
       </c>
       <c r="R20">
-        <v>3.560992956784</v>
+        <v>1.802099765466</v>
       </c>
       <c r="S20">
-        <v>0.000141074587180563</v>
+        <v>5.072509159204423E-05</v>
       </c>
       <c r="T20">
-        <v>7.057445481046458E-05</v>
+        <v>3.746652403317181E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H21">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I21">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J21">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>78.27470234001001</v>
+        <v>5.615779287690001</v>
       </c>
       <c r="R21">
-        <v>469.6482140400601</v>
+        <v>50.54201358921</v>
       </c>
       <c r="S21">
-        <v>0.01240392379688515</v>
+        <v>0.000948430017652609</v>
       </c>
       <c r="T21">
-        <v>0.009307843924667474</v>
+        <v>0.001050792860147431</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H22">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I22">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J22">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>0.6329550818653334</v>
+        <v>0.031205452278</v>
       </c>
       <c r="R22">
-        <v>3.797730491192</v>
+        <v>0.280849070502</v>
       </c>
       <c r="S22">
-        <v>0.0001003022223988158</v>
+        <v>5.270183555781322E-06</v>
       </c>
       <c r="T22">
-        <v>7.526629852562519E-05</v>
+        <v>5.838987747127405E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H23">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I23">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J23">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>34.210249282271</v>
+        <v>1.464712218801</v>
       </c>
       <c r="R23">
-        <v>136.840997129084</v>
+        <v>8.788273312805998</v>
       </c>
       <c r="S23">
-        <v>0.005421180949708099</v>
+        <v>0.0002473703050578488</v>
       </c>
       <c r="T23">
-        <v>0.002712018497455076</v>
+        <v>0.000182712444446262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H24">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I24">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J24">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>1.607647915584667</v>
+        <v>0.20883844839</v>
       </c>
       <c r="R24">
-        <v>9.645887493508001</v>
+        <v>1.87954603551</v>
       </c>
       <c r="S24">
-        <v>0.000254758455043534</v>
+        <v>3.527002097950058E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001911695022368724</v>
+        <v>3.907666937223004E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,433 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.562294</v>
+        <v>0.112086</v>
       </c>
       <c r="H25">
-        <v>3.124588</v>
+        <v>0.336258</v>
       </c>
       <c r="I25">
-        <v>0.01839158560203802</v>
+        <v>0.001289142246032498</v>
       </c>
       <c r="J25">
-        <v>0.01240965966598085</v>
+        <v>0.001318188240666226</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>0.4439143832773333</v>
+        <v>0.012295983648</v>
       </c>
       <c r="R25">
-        <v>2.663486299664</v>
+        <v>0.110663852832</v>
       </c>
       <c r="S25">
-        <v>7.034559082186098E-05</v>
+        <v>2.076627194714028E-06</v>
       </c>
       <c r="T25">
-        <v>5.278698828533809E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H26">
-        <v>2.257103</v>
-      </c>
-      <c r="I26">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J26">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.569834</v>
-      </c>
-      <c r="N26">
-        <v>1.139668</v>
-      </c>
-      <c r="O26">
-        <v>0.007670604929513537</v>
-      </c>
-      <c r="P26">
-        <v>0.005687058042690201</v>
-      </c>
-      <c r="Q26">
-        <v>0.4287246769673333</v>
-      </c>
-      <c r="R26">
-        <v>2.572348061804</v>
-      </c>
-      <c r="S26">
-        <v>6.793853012493387E-05</v>
-      </c>
-      <c r="T26">
-        <v>5.098074167732322E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H27">
-        <v>2.257103</v>
-      </c>
-      <c r="I27">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J27">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>50.10241500000001</v>
-      </c>
-      <c r="N27">
-        <v>150.307245</v>
-      </c>
-      <c r="O27">
-        <v>0.6744347151618421</v>
-      </c>
-      <c r="P27">
-        <v>0.7500482829664926</v>
-      </c>
-      <c r="Q27">
-        <v>37.69543706791501</v>
-      </c>
-      <c r="R27">
-        <v>339.258933611235</v>
-      </c>
-      <c r="S27">
-        <v>0.005973466712778528</v>
-      </c>
-      <c r="T27">
-        <v>0.006723690434034415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H28">
-        <v>2.257103</v>
-      </c>
-      <c r="I28">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J28">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.4051446666666667</v>
-      </c>
-      <c r="N28">
-        <v>1.215434</v>
-      </c>
-      <c r="O28">
-        <v>0.005453701739979455</v>
-      </c>
-      <c r="P28">
-        <v>0.00606513800954236</v>
-      </c>
-      <c r="Q28">
-        <v>0.3048177475224444</v>
-      </c>
-      <c r="R28">
-        <v>2.743359727702</v>
-      </c>
-      <c r="S28">
-        <v>4.830342370109476E-05</v>
-      </c>
-      <c r="T28">
-        <v>5.436998036255793E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H29">
-        <v>2.257103</v>
-      </c>
-      <c r="I29">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J29">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>21.8974465</v>
-      </c>
-      <c r="N29">
-        <v>43.794893</v>
-      </c>
-      <c r="O29">
-        <v>0.2947641963565862</v>
-      </c>
-      <c r="P29">
-        <v>0.2185409246064703</v>
-      </c>
-      <c r="Q29">
-        <v>16.47493072916317</v>
-      </c>
-      <c r="R29">
-        <v>98.849584374979</v>
-      </c>
-      <c r="S29">
-        <v>0.002610725805584395</v>
-      </c>
-      <c r="T29">
-        <v>0.001959075912299908</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H30">
-        <v>2.257103</v>
-      </c>
-      <c r="I30">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J30">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.029030333333333</v>
-      </c>
-      <c r="N30">
-        <v>3.087091</v>
-      </c>
-      <c r="O30">
-        <v>0.01385190274270336</v>
-      </c>
-      <c r="P30">
-        <v>0.01540489484662773</v>
-      </c>
-      <c r="Q30">
-        <v>0.7742091508192221</v>
-      </c>
-      <c r="R30">
-        <v>6.967882357373</v>
-      </c>
-      <c r="S30">
-        <v>0.0001226862705641247</v>
-      </c>
-      <c r="T30">
-        <v>0.0001380947686566521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.7523676666666667</v>
-      </c>
-      <c r="H31">
-        <v>2.257103</v>
-      </c>
-      <c r="I31">
-        <v>0.008856997687826751</v>
-      </c>
-      <c r="J31">
-        <v>0.008964343478584814</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.852428</v>
-      </c>
-      <c r="O31">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P31">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q31">
-        <v>0.2137797551204444</v>
-      </c>
-      <c r="R31">
-        <v>1.924017796084</v>
-      </c>
-      <c r="S31">
-        <v>3.387694507367475E-05</v>
-      </c>
-      <c r="T31">
-        <v>3.813164155395894E-05</v>
+        <v>2.300754920003756E-06</v>
       </c>
     </row>
   </sheetData>
